--- a/municipal/ENG/Hotels/Guests/Kakheti/Gurjaani Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Kakheti/Gurjaani Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -117,6 +114,9 @@
       </rPr>
       <t xml:space="preserve"> by country and purpose of arrival in Gurjaani  Municipality</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
@@ -342,13 +342,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,23 +387,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -687,14 +687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -704,13 +704,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -768,18 +768,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -837,19 +837,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -908,14 +908,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="48">
         <v>2010</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -974,19 +974,19 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>14179</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9">
         <v>13090</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9">
         <v>1089</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1115,13 +1115,13 @@
         <v>14129</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10">
         <v>13040</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>1089</v>
@@ -1184,22 +1184,22 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10">
         <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1319,22 +1319,22 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10">
         <v>32</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1394,22 +1394,22 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="10">
         <v>18</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1469,22 +1469,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1543,14 +1543,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="39">
         <v>2011</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>431</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
         <v>391</v>
@@ -1624,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1755,7 +1755,7 @@
         <v>333</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>293</v>
@@ -1763,133 +1763,133 @@
       <c r="E17" s="2">
         <v>40</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>15</v>
+      <c r="F17" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="44">
+        <v>9</v>
+      </c>
+      <c r="B22" s="34">
         <v>6</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="C22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="34">
         <v>6</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>15</v>
+      <c r="E22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="39">
         <v>2012</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="46">
+        <v>7</v>
+      </c>
+      <c r="B24" s="36">
         <v>1860</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="46">
+      <c r="C24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="36">
         <v>1227</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="36">
         <v>60</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="36">
         <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1905,7 +1905,7 @@
         <v>1797</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="10">
         <v>1164</v>
@@ -1919,27 +1919,27 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>63</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="10">
         <v>63</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1949,97 +1949,97 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="10">
         <v>23</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="10">
         <v>40</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="39">
         <v>2013</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="46">
+        <v>7</v>
+      </c>
+      <c r="B33" s="36">
         <v>10558</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="36">
         <v>400</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="36">
         <v>10055</v>
       </c>
-      <c r="E33" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="46">
+      <c r="E33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="36">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2061,7 +2061,7 @@
         <v>8880</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="10">
         <v>78</v>
@@ -2069,19 +2069,19 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>1200</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="10">
         <v>1175</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="10">
         <v>25</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2099,19 +2099,19 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>85</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="10">
         <v>60</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="10">
         <v>25</v>
@@ -2119,77 +2119,77 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>273</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="10">
         <v>273</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="47">
+        <v>9</v>
+      </c>
+      <c r="B40" s="37">
         <v>842</v>
       </c>
-      <c r="C40" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="47">
+      <c r="C40" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="37">
         <v>842</v>
       </c>
-      <c r="E40" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>15</v>
+      <c r="E40" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="39">
         <v>2014</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="46">
+        <v>7</v>
+      </c>
+      <c r="B42" s="36">
         <v>15876</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="36">
         <v>248</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="36">
         <v>15478</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="46">
+      <c r="E42" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="36">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2211,7 +2211,7 @@
         <v>14096</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="10">
         <v>150</v>
@@ -2219,27 +2219,27 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>1382</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="10">
         <v>1382</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2249,97 +2249,97 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>309</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="10">
         <v>309</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>813</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="10">
         <v>813</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="47">
+        <v>9</v>
+      </c>
+      <c r="B49" s="37">
         <v>260</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="47">
+      <c r="C49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="37">
         <v>260</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>15</v>
+      <c r="E49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35">
+      <c r="A50" s="39">
         <v>2015</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="46">
+        <v>7</v>
+      </c>
+      <c r="B51" s="36">
         <v>13110</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="36">
         <v>668</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="36">
         <v>12336</v>
       </c>
-      <c r="E51" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="46">
+      <c r="E51" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="36">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2361,7 +2361,7 @@
         <v>11356</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="10">
         <v>106</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>1140</v>
@@ -2381,15 +2381,15 @@
         <v>980</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>764</v>
@@ -2411,15 +2411,15 @@
         <v>697</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>283</v>
@@ -2431,65 +2431,65 @@
         <v>193</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="47">
+        <v>9</v>
+      </c>
+      <c r="B58" s="37">
         <v>93</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="37">
         <v>3</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="37">
         <v>90</v>
       </c>
-      <c r="E58" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>15</v>
+      <c r="E58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35">
+      <c r="A59" s="39">
         <v>2016</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="46">
+        <v>7</v>
+      </c>
+      <c r="B60" s="36">
         <v>17736</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="36">
         <v>583</v>
       </c>
-      <c r="D60" s="46">
+      <c r="D60" s="36">
         <v>17153</v>
       </c>
-      <c r="E60" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>15</v>
+      <c r="E60" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2505,21 +2505,21 @@
         <v>13439</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="10">
         <v>13439</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>4297</v>
@@ -2531,15 +2531,15 @@
         <v>3714</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>2894</v>
@@ -2561,15 +2561,15 @@
         <v>2872</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>1012</v>
@@ -2581,65 +2581,65 @@
         <v>470</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="47">
+        <v>9</v>
+      </c>
+      <c r="B67" s="37">
         <v>391</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="37">
         <v>19</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="37">
         <v>372</v>
       </c>
-      <c r="E67" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>15</v>
+      <c r="E67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="35">
+      <c r="A68" s="39">
         <v>2017</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="46">
+        <v>7</v>
+      </c>
+      <c r="B69" s="36">
         <v>22041</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="36">
         <v>627</v>
       </c>
-      <c r="D69" s="46">
+      <c r="D69" s="36">
         <v>21414</v>
       </c>
-      <c r="E69" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="46" t="s">
-        <v>15</v>
+      <c r="E69" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2655,21 +2655,21 @@
         <v>16062</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="10">
         <v>16062</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>5979</v>
@@ -2681,15 +2681,15 @@
         <v>5352</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2699,27 +2699,27 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>3000</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="10">
         <v>3000</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>570</v>
@@ -2728,68 +2728,68 @@
         <v>570</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="47">
+        <v>9</v>
+      </c>
+      <c r="B76" s="37">
         <v>2409</v>
       </c>
-      <c r="C76" s="47">
+      <c r="C76" s="37">
         <v>57</v>
       </c>
-      <c r="D76" s="47">
+      <c r="D76" s="37">
         <v>2352</v>
       </c>
-      <c r="E76" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>15</v>
+      <c r="E76" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="35">
+      <c r="A77" s="39">
         <v>2018</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="46">
+        <v>7</v>
+      </c>
+      <c r="B78" s="36">
         <v>2349</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="36">
         <v>1016</v>
       </c>
-      <c r="D78" s="46">
+      <c r="D78" s="36">
         <v>918</v>
       </c>
-      <c r="E78" s="46">
+      <c r="E78" s="36">
         <v>355</v>
       </c>
-      <c r="F78" s="46">
+      <c r="F78" s="36">
         <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2814,12 +2814,12 @@
         <v>345</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>1044</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>277</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>190</v>
@@ -2881,65 +2881,65 @@
         <v>20</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="47">
+        <v>9</v>
+      </c>
+      <c r="B85" s="37">
         <v>577</v>
       </c>
-      <c r="C85" s="47">
+      <c r="C85" s="37">
         <v>554</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D85" s="37">
         <v>23</v>
       </c>
-      <c r="E85" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="48" t="s">
-        <v>15</v>
+      <c r="E85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="35">
+      <c r="A86" s="39">
         <v>2019</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="46">
+        <v>7</v>
+      </c>
+      <c r="B87" s="36">
         <v>23002</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="36">
         <v>12803</v>
       </c>
-      <c r="D87" s="46">
+      <c r="D87" s="36">
         <v>9731</v>
       </c>
-      <c r="E87" s="46">
+      <c r="E87" s="36">
         <v>283</v>
       </c>
-      <c r="F87" s="46">
+      <c r="F87" s="36">
         <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>5863</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>308</v>
@@ -3011,7 +3011,7 @@
         <v>88</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="10">
         <v>3</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>910</v>
@@ -3028,68 +3028,68 @@
         <v>907</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="10">
         <v>3</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="47">
+        <v>9</v>
+      </c>
+      <c r="B94" s="37">
         <v>4645</v>
       </c>
-      <c r="C94" s="47">
+      <c r="C94" s="37">
         <v>4638</v>
       </c>
-      <c r="D94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="47">
+      <c r="D94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="35">
+      <c r="A95" s="39">
         <v>2020</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="46">
+        <v>7</v>
+      </c>
+      <c r="B96" s="36">
         <v>24176</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="36">
         <v>22546</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="36">
         <v>1150</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="36">
         <v>255</v>
       </c>
-      <c r="F96" s="46">
+      <c r="F96" s="36">
         <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3119,27 +3119,27 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3149,97 +3149,97 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="35">
+      <c r="A104" s="39">
         <v>2021</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="46">
+        <v>7</v>
+      </c>
+      <c r="B105" s="36">
         <v>93605</v>
       </c>
-      <c r="C105" s="46">
+      <c r="C105" s="36">
         <v>90425</v>
       </c>
-      <c r="D105" s="46">
+      <c r="D105" s="36">
         <v>1200</v>
       </c>
-      <c r="E105" s="46">
+      <c r="E105" s="36">
         <v>100</v>
       </c>
-      <c r="F105" s="46">
+      <c r="F105" s="36">
         <v>1880</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>12020</v>
@@ -3278,18 +3278,18 @@
         <v>12020</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>40</v>
@@ -3308,18 +3308,18 @@
         <v>40</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>228</v>
@@ -3328,38 +3328,38 @@
         <v>228</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="47">
+        <v>9</v>
+      </c>
+      <c r="B112" s="37">
         <v>11752</v>
       </c>
-      <c r="C112" s="47">
+      <c r="C112" s="37">
         <v>11752</v>
       </c>
-      <c r="D112" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="48" t="s">
-        <v>15</v>
+      <c r="D112" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3408,12 +3408,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3464,12 +3464,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3520,12 +3520,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3576,12 +3576,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3632,12 +3632,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="40"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3688,12 +3688,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3744,12 +3744,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="40"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3800,12 +3800,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3856,12 +3856,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3912,12 +3912,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="40"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3969,17 +3969,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3996,6 +3985,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
